--- a/Data/Input/challenge.xlsx
+++ b/Data/Input/challenge.xlsx
@@ -666,7 +666,7 @@
       <x:selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="24.325" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultColWidth="38.5375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="14.332031" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.441406" style="0" customWidth="1"/>
